--- a/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.2950257354844297</v>
+        <v>-1.2950257467286406</v>
       </c>
       <c r="C2">
-        <v>-2.197636381361832</v>
+        <v>-2.1976363691139227</v>
       </c>
       <c r="D2">
-        <v>-3.9364143263194507</v>
+        <v>-3.9364143259462168</v>
       </c>
       <c r="E2">
-        <v>-6.228460553914914</v>
+        <v>-6.2284605425255393</v>
       </c>
       <c r="F2">
-        <v>-17.658977808484252</v>
+        <v>-17.658977796767942</v>
       </c>
       <c r="G2">
-        <v>10.606604407594176</v>
+        <v>10.606604422554653</v>
       </c>
       <c r="H2">
-        <v>-5.5824713903021319</v>
+        <v>-5.5824713973267706</v>
       </c>
       <c r="I2">
-        <v>7.0993957773065972</v>
+        <v>7.0993957892642356</v>
       </c>
       <c r="J2">
-        <v>4.2153548881133105</v>
+        <v>4.21535488123547</v>
       </c>
       <c r="K2">
-        <v>-14.608111499880494</v>
+        <v>-14.608111491044212</v>
       </c>
       <c r="L2">
-        <v>5.0817904776619542</v>
+        <v>5.0817904755903527</v>
       </c>
       <c r="M2">
-        <v>-2.3219195216235846</v>
+        <v>-2.3219195143576599</v>
       </c>
       <c r="N2">
-        <v>-9.705458501784392E-2</v>
+        <v>-9.7054585604524846E-2</v>
       </c>
       <c r="O2">
-        <v>13.102235751484031</v>
+        <v>13.102235754515718</v>
       </c>
       <c r="P2">
-        <v>0.58396306452613089</v>
+        <v>0.58396309083195774</v>
       </c>
       <c r="Q2">
-        <v>-2.1903796878570461</v>
+        <v>-2.1903796610634458</v>
       </c>
       <c r="R2">
-        <v>-0.49391095274955887</v>
+        <v>-0.49391093034904543</v>
       </c>
       <c r="S2">
-        <v>6.9558240347205071</v>
+        <v>6.9558240058965453</v>
       </c>
       <c r="T2">
-        <v>-8.1609595846693708</v>
+        <v>-8.1609595805727793</v>
       </c>
       <c r="U2">
-        <v>7.0626372723247073</v>
+        <v>7.0626372783335967</v>
       </c>
       <c r="V2">
-        <v>-9.561049319428065</v>
+        <v>-9.5610493228675182</v>
       </c>
       <c r="W2">
-        <v>16.369763737252953</v>
+        <v>16.369763740920632</v>
       </c>
       <c r="X2">
-        <v>-0.81449106423372086</v>
+        <v>-0.81449104076639856</v>
       </c>
       <c r="Y2">
-        <v>-3.3407236081160363</v>
+        <v>-3.3407236168386305</v>
       </c>
       <c r="Z2">
-        <v>-24.052315654189428</v>
+        <v>-24.052315655852084</v>
       </c>
       <c r="AA2">
-        <v>10.194300137519804</v>
+        <v>10.19430014362672</v>
       </c>
       <c r="AB2">
-        <v>-1.5709040398591299</v>
+        <v>-1.5709040208374603</v>
       </c>
       <c r="AC2">
-        <v>6.8587449968034093</v>
+        <v>6.8587450085675101</v>
       </c>
       <c r="AD2">
-        <v>-7.2395436071364827</v>
+        <v>-7.2395435829513701</v>
       </c>
       <c r="AE2">
-        <v>-35.33182367699348</v>
+        <v>-35.331823675725673</v>
       </c>
       <c r="AF2">
-        <v>-1.726683136633369</v>
+        <v>-1.7266831095602129</v>
       </c>
       <c r="AG2">
-        <v>1.2124568220143033</v>
+        <v>1.2124568230955788</v>
       </c>
       <c r="AH2">
-        <v>-0.75116035133760306</v>
+        <v>-0.75116031620854073</v>
       </c>
       <c r="AI2">
-        <v>38.838764852334322</v>
+        <v>38.838764861549677</v>
       </c>
       <c r="AJ2">
-        <v>-1.5692261863170103</v>
+        <v>-1.5692261646405541</v>
       </c>
       <c r="AK2">
-        <v>0.75407540730083156</v>
+        <v>0.75407541157700564</v>
       </c>
       <c r="AL2">
-        <v>-9.5414320980688387</v>
+        <v>-9.5414320930852057</v>
       </c>
       <c r="AM2">
-        <v>-0.29301261222332187</v>
+        <v>-0.29301260910045812</v>
       </c>
       <c r="AN2">
-        <v>0.50889454714393878</v>
+        <v>0.50889455340509926</v>
       </c>
       <c r="AO2">
-        <v>-6.2338785085086386</v>
+        <v>-6.2338784670394887</v>
       </c>
       <c r="AP2">
-        <v>3.6998887040078614</v>
+        <v>3.6998887147388189</v>
       </c>
       <c r="AQ2">
-        <v>0.24103215272154443</v>
+        <v>0.24103216700385133</v>
       </c>
       <c r="AR2">
-        <v>1.7654700991893151</v>
+        <v>1.765470114080955</v>
       </c>
       <c r="AS2">
-        <v>-0.54585953661521103</v>
+        <v>-0.54585951885925965</v>
       </c>
       <c r="AT2">
-        <v>-1.5530502566293478</v>
+        <v>-1.5530502388092629</v>
       </c>
       <c r="AU2">
-        <v>1.3701147055741103</v>
+        <v>1.370114724339885</v>
       </c>
       <c r="AV2">
-        <v>-1.329107681660787</v>
+        <v>-1.3291076779210016</v>
       </c>
       <c r="AW2">
-        <v>-0.3691852476198676</v>
+        <v>-0.36918522465730064</v>
       </c>
       <c r="AX2">
-        <v>-5.6630314758718612</v>
+        <v>-5.6630314619585818</v>
       </c>
       <c r="AY2">
-        <v>3.0446443314650509</v>
+        <v>3.0446443392689559</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4137944851307367</v>
+        <v>3.4137944833295393</v>
       </c>
       <c r="C3">
-        <v>-0.25818001058733842</v>
+        <v>-0.25818001723973794</v>
       </c>
       <c r="D3">
-        <v>1.0603152608960897</v>
+        <v>1.0603152491217713</v>
       </c>
       <c r="E3">
-        <v>-17.370837592164577</v>
+        <v>-17.370837542869538</v>
       </c>
       <c r="F3">
-        <v>8.3818034265793813</v>
+        <v>8.3818034391838125</v>
       </c>
       <c r="G3">
-        <v>0.4819689216626557</v>
+        <v>0.48196891092106853</v>
       </c>
       <c r="H3">
-        <v>3.3008060616781023</v>
+        <v>3.3008060681860769</v>
       </c>
       <c r="I3">
-        <v>1.6569763162962943</v>
+        <v>1.6569763320879076</v>
       </c>
       <c r="J3">
-        <v>-0.43250997259775659</v>
+        <v>-0.43250996235227035</v>
       </c>
       <c r="K3">
-        <v>28.996401494973995</v>
+        <v>28.996401485922874</v>
       </c>
       <c r="L3">
-        <v>24.319884518967854</v>
+        <v>24.319884513182103</v>
       </c>
       <c r="M3">
-        <v>-3.7477271764570332</v>
+        <v>-3.7478991000695032</v>
       </c>
       <c r="N3">
-        <v>-0.78008047543008274</v>
+        <v>-0.78008047340449593</v>
       </c>
       <c r="O3">
-        <v>4.0443387111637605</v>
+        <v>4.0443387243297195</v>
       </c>
       <c r="P3">
-        <v>-31.306327497697851</v>
+        <v>-31.30632749042897</v>
       </c>
       <c r="Q3">
-        <v>-3.631585718573632</v>
+        <v>-3.6315857019141617</v>
       </c>
       <c r="R3">
-        <v>8.8176290747856001</v>
+        <v>8.8176291139006366</v>
       </c>
       <c r="S3">
-        <v>8.1937300894680902</v>
+        <v>8.1937300987069364</v>
       </c>
       <c r="T3">
-        <v>8.7154946999211234</v>
+        <v>8.7154946996867579</v>
       </c>
       <c r="U3">
-        <v>-6.0056097905859787</v>
+        <v>-6.0056098010304027</v>
       </c>
       <c r="V3">
-        <v>8.6974081524627422</v>
+        <v>8.6974081542337274</v>
       </c>
       <c r="W3">
-        <v>4.2620313797984579</v>
+        <v>4.2620313997496737</v>
       </c>
       <c r="X3">
-        <v>12.178442364126397</v>
+        <v>12.178442380510603</v>
       </c>
       <c r="Y3">
-        <v>6.6979859230973489</v>
+        <v>6.6979859327579163</v>
       </c>
       <c r="Z3">
-        <v>-6.5515277635203972</v>
+        <v>-6.5515277523750228</v>
       </c>
       <c r="AA3">
-        <v>2.4670210074480821</v>
+        <v>2.4670210261556633</v>
       </c>
       <c r="AB3">
-        <v>-0.85636745631873623</v>
+        <v>-0.85636746457851132</v>
       </c>
       <c r="AC3">
-        <v>1.5302106097169883</v>
+        <v>1.5302106104213067</v>
       </c>
       <c r="AD3">
-        <v>-12.815898986751421</v>
+        <v>-12.815898973462112</v>
       </c>
       <c r="AE3">
-        <v>-3.9369951765872884</v>
+        <v>-3.936995158447246</v>
       </c>
       <c r="AF3">
-        <v>1.2043636231382493</v>
+        <v>1.2043636310491195</v>
       </c>
       <c r="AG3">
-        <v>11.323979338541321</v>
+        <v>11.323979334638182</v>
       </c>
       <c r="AH3">
-        <v>8.8464722530376321</v>
+        <v>8.8464722663701139</v>
       </c>
       <c r="AI3">
-        <v>-0.19468874264853753</v>
+        <v>-0.19468875331062918</v>
       </c>
       <c r="AJ3">
-        <v>-5.417740244814695E-2</v>
+        <v>-5.4177422949052811E-2</v>
       </c>
       <c r="AK3">
-        <v>20.42841044479843</v>
+        <v>20.42841044274013</v>
       </c>
       <c r="AL3">
-        <v>-0.69704124479488883</v>
+        <v>-0.69704122658882284</v>
       </c>
       <c r="AM3">
-        <v>-0.83524436025697923</v>
+        <v>-0.83524437046554567</v>
       </c>
       <c r="AN3">
-        <v>3.0261117139623366</v>
+        <v>3.0261117330107652</v>
       </c>
       <c r="AO3">
-        <v>21.138986254304371</v>
+        <v>21.138986245665052</v>
       </c>
       <c r="AP3">
-        <v>-9.3252932635701882</v>
+        <v>-9.3252932532280965</v>
       </c>
       <c r="AQ3">
-        <v>-1.3553134108669838</v>
+        <v>-1.3553133735998699</v>
       </c>
       <c r="AR3">
-        <v>-2.4773136165475051</v>
+        <v>-2.4773136093744625</v>
       </c>
       <c r="AS3">
-        <v>2.3919159009009263</v>
+        <v>2.3919159150298128</v>
       </c>
       <c r="AT3">
-        <v>-2.8100403492122155</v>
+        <v>-2.8100403265162441</v>
       </c>
       <c r="AU3">
-        <v>-0.98287597111112746</v>
+        <v>-0.98287597980439045</v>
       </c>
       <c r="AV3">
-        <v>-0.79555875355573846</v>
+        <v>-0.79555875101284812</v>
       </c>
       <c r="AW3">
-        <v>-4.1887920089639579</v>
+        <v>-4.1887919980725314</v>
       </c>
       <c r="AX3">
-        <v>-35.223195775538414</v>
+        <v>-35.22319577142423</v>
       </c>
       <c r="AY3">
-        <v>-19.646467793910801</v>
+        <v>-19.646467785004944</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,313 +401,307 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>-1.2950257467286406</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>-2.1976363691139227</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-3.9364143259462168</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>-6.2284605425255393</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-17.658977796767942</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>10.606604422554653</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>-5.5824713973267706</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>7.0993957892642356</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>4.21535488123547</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>-14.608111491044212</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.0817904755903527</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>-2.3219195143576599</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>-9.7054585604524846E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>13.102235754515718</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.58396309083195774</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>-2.1903796610634458</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-0.49391093034904543</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.9558240058965453</v>
+        <v>6.9558906658965611</v>
       </c>
       <c r="T2">
-        <v>-8.1609595805727793</v>
+        <v>-8.1609262505727713</v>
       </c>
       <c r="U2">
-        <v>7.0626372783335967</v>
+        <v>7.0626706083336046</v>
       </c>
       <c r="V2">
-        <v>-9.5610493228675182</v>
+        <v>-9.5610159928675387</v>
       </c>
       <c r="W2">
-        <v>16.369763740920632</v>
+        <v>16.36983040092062</v>
       </c>
       <c r="X2">
-        <v>-0.81449104076639856</v>
+        <v>-0.81455770076641443</v>
       </c>
       <c r="Y2">
-        <v>-3.3407236168386305</v>
+        <v>-3.3407569468386384</v>
       </c>
       <c r="Z2">
-        <v>-24.052315655852084</v>
+        <v>-24.0523823158521</v>
       </c>
       <c r="AA2">
-        <v>10.19430014362672</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>-1.5709040208374603</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>6.8587450085675101</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>-7.2395435829513701</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-35.331823675725673</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>-1.7266831095602129</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.2124568230955788</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>-0.75116031620854073</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>38.838764861549677</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>-1.5692261646405541</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.75407541157700564</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>-9.5414320930852057</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.29301260910045812</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.50889455340509926</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>-6.2338784670394887</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>3.6998887147388189</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.24103216700385133</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>1.765470114080955</v>
       </c>
       <c r="AS2">
-        <v>-0.54585951885925965</v>
+        <v>-0.54582618885925172</v>
       </c>
       <c r="AT2">
-        <v>-1.5530502388092629</v>
+        <v>-1.5530169088092549</v>
       </c>
       <c r="AU2">
         <v>1.370114724339885</v>
       </c>
       <c r="AV2">
-        <v>-1.3291076779210016</v>
+        <v>-1.3290743479210221</v>
       </c>
       <c r="AW2">
-        <v>-0.36918522465730064</v>
+        <v>-0.36925188465731651</v>
       </c>
       <c r="AX2">
-        <v>-5.6630314619585818</v>
+        <v>-5.6630981219585692</v>
       </c>
       <c r="AY2">
-        <v>3.0446443392689559</v>
+        <v>3.0446110092689622</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>3.4137944833295393</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>-0.25818001723973794</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>1.0603152491217713</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-17.370837542869538</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>8.3818034391838125</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.48196891092106853</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>3.3008060681860769</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.6569763320879076</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>-0.43250996235227035</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>28.996401485922874</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>24.319884513182103</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>-3.7478991000695032</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>-0.78008047340449593</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.0443387243297195</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>-31.30632749042897</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-3.6315857019141617</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>8.8176291139006366</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>8.1937300987069364</v>
       </c>
       <c r="T3">
-        <v>8.7154946996867579</v>
+        <v>8.7155280296867659</v>
       </c>
       <c r="U3">
-        <v>-6.0056098010304027</v>
+        <v>-6.0055764710303947</v>
       </c>
       <c r="V3">
-        <v>8.6974081542337274</v>
+        <v>8.697408154233699</v>
       </c>
       <c r="W3">
-        <v>4.2620313997496737</v>
+        <v>4.2620313997496879</v>
       </c>
       <c r="X3">
-        <v>12.178442380510603</v>
+        <v>12.178509040510605</v>
       </c>
       <c r="Y3">
-        <v>6.6979859327579163</v>
+        <v>32.727985932757932</v>
       </c>
       <c r="Z3">
-        <v>-6.5515277523750228</v>
+        <v>-1.1081944123750276</v>
       </c>
       <c r="AA3">
-        <v>2.4670210261556633</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>-0.85636746457851132</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.5302106104213067</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>-12.815898973462112</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>-3.936995158447246</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.2043636310491195</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.323979334638182</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.8464722663701139</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>-0.19468875331062918</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-5.4177422949052811E-2</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>20.42841044274013</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>-0.69704122658882284</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.83524437046554567</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>3.0261117330107652</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>21.138986245665052</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-9.3252932532280965</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>-1.3553133735998699</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>-2.4773136093744625</v>
+        <v>-2.4772469493744893</v>
       </c>
       <c r="AS3">
-        <v>2.3919159150298128</v>
+        <v>2.3918825850298049</v>
       </c>
       <c r="AT3">
-        <v>-2.8100403265162441</v>
+        <v>-2.8100069965162362</v>
       </c>
       <c r="AU3">
         <v>-0.98287597980439045</v>
       </c>
       <c r="AV3">
-        <v>-0.79555875101284812</v>
+        <v>-0.79562541101286399</v>
       </c>
       <c r="AW3">
-        <v>-4.1887919980725314</v>
+        <v>-4.1887586680725235</v>
       </c>
       <c r="AX3">
-        <v>-35.22319577142423</v>
+        <v>-31.049929101424198</v>
       </c>
       <c r="AY3">
-        <v>-19.646467785004944</v>
+        <v>22.773498884995078</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.2949590754844138</v>
+        <v>13.102169094515716</v>
       </c>
       <c r="C2">
-        <v>2.5723302886381703</v>
+        <v>-0.49387760034906591</v>
       </c>
       <c r="D2">
-        <v>-3.9364476563194586</v>
+        <v>0.50889455340507084</v>
       </c>
       <c r="E2">
-        <v>-13.541793893914928</v>
+        <v>0.24106549700383084</v>
       </c>
       <c r="F2">
         <v>-17.658944478484244</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4137944851307367</v>
+        <v>4.0443387243297195</v>
       </c>
       <c r="C3">
-        <v>0.98855331941265945</v>
+        <v>8.8176957739006525</v>
       </c>
       <c r="D3">
-        <v>1.0603819208960772</v>
+        <v>3.0261117330107936</v>
       </c>
       <c r="E3">
-        <v>-17.370837592164548</v>
+        <v>-1.0589812866004138</v>
       </c>
       <c r="F3">
         <v>8.3817700965793733</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-1.2949590754844138</v>
+        <v>16.656345414395474</v>
       </c>
       <c r="C2">
-        <v>2.5723302886381703</v>
+        <v>13.102169094515716</v>
       </c>
       <c r="D2">
-        <v>-3.9364476563194586</v>
+        <v>13.230320720899556</v>
       </c>
       <c r="E2">
-        <v>-13.541793893914928</v>
+        <v>0.50889455340507084</v>
       </c>
       <c r="F2">
         <v>-17.658944478484244</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>3.4137944851307367</v>
+        <v>33.916586186595538</v>
       </c>
       <c r="C3">
-        <v>0.98855331941265945</v>
+        <v>4.0443387243297195</v>
       </c>
       <c r="D3">
-        <v>1.0603819208960772</v>
+        <v>2.768088959534424</v>
       </c>
       <c r="E3">
-        <v>-17.370837592164548</v>
+        <v>3.0261117330107936</v>
       </c>
       <c r="F3">
         <v>8.3817700965793733</v>

--- a/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_elong_GMapo_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>-1.2949590867286247</v>
+      </c>
+      <c r="C2">
+        <v>2.5723303008860796</v>
+      </c>
+      <c r="D2">
+        <v>-3.9364476559462247</v>
+      </c>
+      <c r="E2">
+        <v>-13.541793882525553</v>
+      </c>
+      <c r="F2">
+        <v>-17.658944466767935</v>
+      </c>
+      <c r="G2">
+        <v>10.606671082554641</v>
+      </c>
+      <c r="H2">
+        <v>-5.5825047273267501</v>
+      </c>
+      <c r="I2">
+        <v>7.0993957892642356</v>
+      </c>
+      <c r="J2">
+        <v>4.2153548812354984</v>
+      </c>
+      <c r="K2">
+        <v>6.4351885089557896</v>
+      </c>
+      <c r="L2">
+        <v>5.0818571355903543</v>
+      </c>
+      <c r="M2">
+        <v>-2.3219528443576394</v>
+      </c>
+      <c r="N2">
         <v>16.656345414395474</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>13.102169094515716</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.58396309083195774</v>
+      </c>
+      <c r="Q2">
+        <v>-8.5036463210634281</v>
+      </c>
+      <c r="R2">
+        <v>-0.49387760034906591</v>
+      </c>
+      <c r="S2">
+        <v>6.9558906658965611</v>
+      </c>
+      <c r="T2">
+        <v>-8.1609262505727713</v>
+      </c>
+      <c r="U2">
+        <v>7.0626706083336046</v>
+      </c>
+      <c r="V2">
+        <v>-9.5610159928675387</v>
+      </c>
+      <c r="W2">
+        <v>16.36983040092062</v>
+      </c>
+      <c r="X2">
+        <v>-0.81455770076641443</v>
+      </c>
+      <c r="Y2">
+        <v>-3.3407569468386384</v>
+      </c>
+      <c r="Z2">
+        <v>-24.0523823158521</v>
+      </c>
+      <c r="AA2">
+        <v>10.194300143626705</v>
+      </c>
+      <c r="AB2">
+        <v>18.052395979162554</v>
+      </c>
+      <c r="AC2">
+        <v>6.8586783485675227</v>
+      </c>
+      <c r="AD2">
+        <v>0.30708975704862951</v>
+      </c>
+      <c r="AE2">
+        <v>-35.331823675725673</v>
+      </c>
+      <c r="AF2">
+        <v>-1.7266831095602129</v>
+      </c>
+      <c r="AG2">
+        <v>1.2124901530955867</v>
+      </c>
+      <c r="AH2">
+        <v>-0.75116031620854073</v>
+      </c>
+      <c r="AI2">
+        <v>38.838798191549657</v>
+      </c>
+      <c r="AJ2">
+        <v>0.22070717535946471</v>
+      </c>
+      <c r="AK2">
+        <v>0.75404208157702612</v>
+      </c>
+      <c r="AL2">
+        <v>-9.5414654230852136</v>
+      </c>
+      <c r="AM2">
         <v>13.230320720899556</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>0.50889455340507084</v>
       </c>
-      <c r="F2">
-        <v>-17.658944478484244</v>
-      </c>
-      <c r="G2">
-        <v>10.606671067594164</v>
-      </c>
-      <c r="H2">
-        <v>-5.5825047203021114</v>
-      </c>
-      <c r="I2">
-        <v>7.0993957773065972</v>
-      </c>
-      <c r="J2">
-        <v>4.2153548881133389</v>
-      </c>
-      <c r="K2">
-        <v>6.4351885001195086</v>
-      </c>
-      <c r="L2">
-        <v>5.0818571376619559</v>
-      </c>
-      <c r="M2">
-        <v>-2.3219528516235641</v>
-      </c>
-      <c r="N2">
-        <v>16.656345414982155</v>
-      </c>
-      <c r="O2">
-        <v>13.102169091484029</v>
-      </c>
-      <c r="P2">
-        <v>0.58396306452613089</v>
-      </c>
-      <c r="Q2">
-        <v>-8.5036463478570283</v>
-      </c>
-      <c r="R2">
-        <v>-0.49387762274957936</v>
-      </c>
-      <c r="S2">
-        <v>6.955890694720523</v>
-      </c>
-      <c r="T2">
-        <v>-8.1609262546693628</v>
-      </c>
-      <c r="U2">
-        <v>7.0626706023247152</v>
-      </c>
-      <c r="V2">
-        <v>-9.5610159894280855</v>
-      </c>
-      <c r="W2">
-        <v>16.36983039725294</v>
-      </c>
-      <c r="X2">
-        <v>-0.81455772423373674</v>
-      </c>
-      <c r="Y2">
-        <v>-3.3407569381160442</v>
-      </c>
-      <c r="Z2">
-        <v>-24.052382314189444</v>
-      </c>
-      <c r="AA2">
-        <v>10.194300137519789</v>
-      </c>
-      <c r="AB2">
-        <v>18.052395960140885</v>
-      </c>
-      <c r="AC2">
-        <v>6.8586783368034219</v>
-      </c>
-      <c r="AD2">
-        <v>0.30708973286351693</v>
-      </c>
-      <c r="AE2">
-        <v>-35.33182367699348</v>
-      </c>
-      <c r="AF2">
-        <v>-1.726683136633369</v>
-      </c>
-      <c r="AG2">
-        <v>1.2124901520143112</v>
-      </c>
-      <c r="AH2">
-        <v>-0.75116035133760306</v>
-      </c>
-      <c r="AI2">
-        <v>38.838798182334301</v>
-      </c>
-      <c r="AJ2">
-        <v>0.22070715368300853</v>
-      </c>
-      <c r="AK2">
-        <v>0.75404207730085204</v>
-      </c>
-      <c r="AL2">
-        <v>-9.5414654280688467</v>
-      </c>
-      <c r="AM2">
-        <v>13.230320717776692</v>
-      </c>
-      <c r="AN2">
-        <v>0.50889454714391036</v>
-      </c>
       <c r="AO2">
-        <v>-6.2339118385086181</v>
+        <v>-6.2339117970394682</v>
       </c>
       <c r="AP2">
-        <v>3.3045707560910103</v>
+        <v>3.3045707734081873</v>
       </c>
       <c r="AQ2">
-        <v>0.24106548272152395</v>
+        <v>0.24106549700383084</v>
       </c>
       <c r="AR2">
-        <v>1.7654700991893151</v>
+        <v>1.765470114080955</v>
       </c>
       <c r="AS2">
-        <v>-0.54582620661520309</v>
+        <v>-0.54582618885925172</v>
       </c>
       <c r="AT2">
-        <v>-1.5530169266293399</v>
+        <v>-1.5530169088092549</v>
       </c>
       <c r="AU2">
-        <v>1.3701147055741103</v>
+        <v>1.370114724339885</v>
       </c>
       <c r="AV2">
-        <v>-1.3290743516608075</v>
+        <v>-1.3290743479210221</v>
       </c>
       <c r="AW2">
-        <v>-0.36925190761988347</v>
+        <v>-0.36925188465731651</v>
       </c>
       <c r="AX2">
-        <v>-5.6630981358718486</v>
+        <v>-5.6630981219585692</v>
       </c>
       <c r="AY2">
-        <v>3.0446110014650571</v>
+        <v>3.0446110092689622</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>3.4137944833295393</v>
+      </c>
+      <c r="C3">
+        <v>0.98855331276025993</v>
+      </c>
+      <c r="D3">
+        <v>1.0603819091217588</v>
+      </c>
+      <c r="E3">
+        <v>-17.370837542869509</v>
+      </c>
+      <c r="F3">
+        <v>8.3817701091838046</v>
+      </c>
+      <c r="G3">
+        <v>0.48196891092106853</v>
+      </c>
+      <c r="H3">
+        <v>3.3007394081861037</v>
+      </c>
+      <c r="I3">
+        <v>1.6569096720878917</v>
+      </c>
+      <c r="J3">
+        <v>10.08419003764773</v>
+      </c>
+      <c r="K3">
+        <v>28.996401485922874</v>
+      </c>
+      <c r="L3">
+        <v>24.319851183182095</v>
+      </c>
+      <c r="M3">
+        <v>-3.7478657700694953</v>
+      </c>
+      <c r="N3">
         <v>33.916586186595538</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.0443387243297195</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>-31.306294160428962</v>
+      </c>
+      <c r="Q3">
+        <v>-3.6316523619141492</v>
+      </c>
+      <c r="R3">
+        <v>8.8176957739006525</v>
+      </c>
+      <c r="S3">
+        <v>8.1937300987069364</v>
+      </c>
+      <c r="T3">
+        <v>8.7155280296867659</v>
+      </c>
+      <c r="U3">
+        <v>-6.0055764710303947</v>
+      </c>
+      <c r="V3">
+        <v>8.697408154233699</v>
+      </c>
+      <c r="W3">
+        <v>4.257236153413217</v>
+      </c>
+      <c r="X3">
+        <v>12.178509040510605</v>
+      </c>
+      <c r="Y3">
+        <v>32.727985932757932</v>
+      </c>
+      <c r="Z3">
+        <v>-1.1081944123750276</v>
+      </c>
+      <c r="AA3">
+        <v>2.4670210261556633</v>
+      </c>
+      <c r="AB3">
+        <v>2.176899205421492</v>
+      </c>
+      <c r="AC3">
+        <v>1.5302106104213067</v>
+      </c>
+      <c r="AD3">
+        <v>-12.81593230346212</v>
+      </c>
+      <c r="AE3">
+        <v>-3.9369951584472744</v>
+      </c>
+      <c r="AF3">
+        <v>1.2043969610491274</v>
+      </c>
+      <c r="AG3">
+        <v>11.323979334638182</v>
+      </c>
+      <c r="AH3">
+        <v>8.93522961719259</v>
+      </c>
+      <c r="AI3">
+        <v>1.1719112466893762</v>
+      </c>
+      <c r="AJ3">
+        <v>-5.4144092949044875E-2</v>
+      </c>
+      <c r="AK3">
+        <v>20.428410442740159</v>
+      </c>
+      <c r="AL3">
+        <v>-0.69704122658882284</v>
+      </c>
+      <c r="AM3">
         <v>2.768088959534424</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>3.0261117330107936</v>
       </c>
-      <c r="F3">
-        <v>8.3817700965793733</v>
-      </c>
-      <c r="G3">
-        <v>0.4819689216626557</v>
-      </c>
-      <c r="H3">
-        <v>3.3007394016781291</v>
-      </c>
-      <c r="I3">
-        <v>1.6569096562962784</v>
-      </c>
-      <c r="J3">
-        <v>10.084190027402244</v>
-      </c>
-      <c r="K3">
-        <v>28.996401494973995</v>
-      </c>
-      <c r="L3">
-        <v>24.319851188967846</v>
-      </c>
-      <c r="M3">
-        <v>-3.7476938464570253</v>
-      </c>
-      <c r="N3">
-        <v>33.916586184569951</v>
-      </c>
-      <c r="O3">
-        <v>4.0443387111637605</v>
-      </c>
-      <c r="P3">
-        <v>-31.306294167697843</v>
-      </c>
-      <c r="Q3">
-        <v>-3.6316523785736194</v>
-      </c>
-      <c r="R3">
-        <v>8.817695734785616</v>
-      </c>
-      <c r="S3">
-        <v>8.1937300894680902</v>
-      </c>
-      <c r="T3">
-        <v>8.7155280299211313</v>
-      </c>
-      <c r="U3">
-        <v>-6.0055764605859707</v>
-      </c>
-      <c r="V3">
-        <v>8.6974081524627138</v>
-      </c>
-      <c r="W3">
-        <v>4.2572361401795007</v>
-      </c>
-      <c r="X3">
-        <v>12.178509024126399</v>
-      </c>
-      <c r="Y3">
-        <v>32.727985923097364</v>
-      </c>
-      <c r="Z3">
-        <v>-1.108194423520402</v>
-      </c>
-      <c r="AA3">
-        <v>2.4670210074480821</v>
-      </c>
-      <c r="AB3">
-        <v>2.176899213681267</v>
-      </c>
-      <c r="AC3">
-        <v>1.5302106097169883</v>
-      </c>
-      <c r="AD3">
-        <v>-12.815932316751429</v>
-      </c>
-      <c r="AE3">
-        <v>-3.9369951765873168</v>
-      </c>
-      <c r="AF3">
-        <v>1.2043969531382572</v>
-      </c>
-      <c r="AG3">
-        <v>11.323979338541321</v>
-      </c>
-      <c r="AH3">
-        <v>8.9352295977930112</v>
-      </c>
-      <c r="AI3">
-        <v>1.1719112573514678</v>
-      </c>
-      <c r="AJ3">
-        <v>-5.4144072448139013E-2</v>
-      </c>
-      <c r="AK3">
-        <v>20.428410444798459</v>
-      </c>
-      <c r="AL3">
-        <v>-0.69704124479488883</v>
-      </c>
-      <c r="AM3">
-        <v>2.7680889697429905</v>
-      </c>
-      <c r="AN3">
-        <v>3.026111713962365</v>
-      </c>
       <c r="AO3">
-        <v>21.13901958430435</v>
+        <v>21.139019575665031</v>
       </c>
       <c r="AP3">
-        <v>-9.3253599235701756</v>
+        <v>-9.325359913228084</v>
       </c>
       <c r="AQ3">
-        <v>-1.0589813247916027</v>
+        <v>-1.0589812866004138</v>
       </c>
       <c r="AR3">
-        <v>-2.4772469565475319</v>
+        <v>-2.4772469493744893</v>
       </c>
       <c r="AS3">
-        <v>2.3918825709009184</v>
+        <v>2.3918825850298049</v>
       </c>
       <c r="AT3">
-        <v>-2.8100070192122075</v>
+        <v>-2.8100069965162362</v>
       </c>
       <c r="AU3">
-        <v>-0.98287597111112746</v>
+        <v>-0.98287597980439045</v>
       </c>
       <c r="AV3">
-        <v>-0.79562541355575433</v>
+        <v>-0.79562541101286399</v>
       </c>
       <c r="AW3">
-        <v>-4.1887586789639499</v>
+        <v>-4.1887586680725235</v>
       </c>
       <c r="AX3">
-        <v>-31.049929105538382</v>
+        <v>-31.049929101424198</v>
       </c>
       <c r="AY3">
-        <v>22.773498876089221</v>
+        <v>22.773498884995078</v>
       </c>
     </row>
   </sheetData>
